--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GyeHyunPark\Dropbox\Energy Innovation\InputData_Working\개인폴더-계현\trans\BMRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1B73B-00EC-4A35-A977-9E577200FF2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,21 +57,22 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>in the United States for any vehicle type.</t>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
   <si>
-    <t>Sales Percentage (dimensionless)</t>
+    <t>in the Korea for any vehicle type.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,8 +80,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,7 +120,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,19 +455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,29 +477,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -462,14 +508,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -577,7 +623,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -797,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -907,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1238,12 +1284,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1251,14 +1298,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -1366,7 +1413,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2027,6 +2074,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>